--- a/figures/仪表板_20210415000817.xlsx
+++ b/figures/仪表板_20210415000817.xlsx
@@ -15,6 +15,7 @@
     <sheet name="dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -283,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1462,7 +1463,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
